--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="14520" windowHeight="14535" activeTab="6"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -15,16 +15,14 @@
     <sheet name="HTTP" sheetId="5" r:id="rId6"/>
     <sheet name="MQ Triggers" sheetId="7" r:id="rId7"/>
     <sheet name="ManagedFileTransfer" sheetId="8" r:id="rId8"/>
+    <sheet name="Subscribers" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Queue Name</t>
   </si>
@@ -339,6 +337,117 @@
   </si>
   <si>
     <t>This is the preferred method of connection going forward</t>
+  </si>
+  <si>
+    <t>STEP_SS</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Stepusert999</t>
+  </si>
+  <si>
+    <t>step_usert</t>
+  </si>
+  <si>
+    <t>Subscription Name</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>MQ Command</t>
+  </si>
+  <si>
+    <t>Non-Emergency Incident Reporting</t>
+  </si>
+  <si>
+    <t>/FGC/Mobilising/Table/STS_INCIDENTS</t>
+  </si>
+  <si>
+    <t>FGC.INCIDENTREP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-Call Incident Payments </t>
+  </si>
+  <si>
+    <t>OCP.INCIDENTS.SUB</t>
+  </si>
+  <si>
+    <t>Incident details published from the mobilisation system.</t>
+  </si>
+  <si>
+    <t>OCP.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for OnCall Payments</t>
+  </si>
+  <si>
+    <t>STATSNX_LIVE</t>
+  </si>
+  <si>
+    <t>R3ms09_1</t>
+  </si>
+  <si>
+    <t>008121A9CA484115E050007F010005BF</t>
+  </si>
+  <si>
+    <t>Trigger to create On-Call Payments at Training Centre (OCP)</t>
+  </si>
+  <si>
+    <t>01233579C0FA0EF3E050007F01002A55</t>
+  </si>
+  <si>
+    <t>Trigger to perform an erroneous payments check. (OCP)</t>
+  </si>
+  <si>
+    <t>bed586a0-2d18-11e4-80ec-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to create the payments export file. (OCP)</t>
+  </si>
+  <si>
+    <t>Name Length</t>
+  </si>
+  <si>
+    <t>UUID</t>
+  </si>
+  <si>
+    <t>MQ Define Command</t>
+  </si>
+  <si>
+    <t>33ff6c22-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to create Drill Night Payments (OCP)</t>
+  </si>
+  <si>
+    <t>/FGC/Mobilising/Table/#</t>
+  </si>
+  <si>
+    <t>OCP.SVC.EXPORTPAYCLAIMS</t>
+  </si>
+  <si>
+    <t>OCP.SVC.ERRPAYCHECK</t>
+  </si>
+  <si>
+    <t>OCP.SVC.PAYROLLCUTOFF</t>
+  </si>
+  <si>
+    <t>Service to perform an export of pay claims</t>
+  </si>
+  <si>
+    <t>Service to check pay claims and hold those in error</t>
+  </si>
+  <si>
+    <t>Service for Payroll to perform a cutoff of pending claims</t>
+  </si>
+  <si>
+    <t>ICCS</t>
   </si>
 </sst>
 </file>
@@ -634,49 +743,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ConfigData"/>
-      <sheetName val="Database"/>
-      <sheetName val="MQ BPM4"/>
-      <sheetName val="MQ UKFF"/>
-      <sheetName val="MQ FGC"/>
-      <sheetName val="BPM4ROUTING"/>
-      <sheetName val="HTTP"/>
-      <sheetName val="MQ Triggers"/>
-      <sheetName val="Subscribers"/>
-      <sheetName val="ManagedFileTransfer"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="D2"/>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>3</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>fgc0002d.BORQQ</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,21 +1102,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -1064,7 +1131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
@@ -1083,7 +1150,7 @@
         <v>mqsicvp brk0002t -n TESTDB</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>45</v>
       </c>
@@ -1102,7 +1169,7 @@
         <v>mqsicvp brk0002t -n ESBCONF</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>101</v>
       </c>
@@ -1121,71 +1188,131 @@
         <v>mqsicvp brk0002t -n BPMDBT01</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A5," -u ",B5," -p ",C5)</f>
-        <v>mqsisetdbparms brk0002t -n STATSNX_TEST -u statsnx -p statsnx</v>
-      </c>
-      <c r="F5" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A5)</f>
-        <v>mqsicvp brk0002t -n STATSNX_TEST</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    <row r="6" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="19" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A7," -u ",B7," -p ",C7)</f>
+      <c r="D6" s="19" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A6," -u ",B6," -p ",C6)</f>
         <v>mqsisetdbparms brk0002t -n STEP_TEST -u STEP -p h53ks!f</v>
       </c>
-      <c r="F7" s="19" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A7)</f>
+      <c r="F6" s="19" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A6)</f>
         <v>mqsicvp brk0002t -n STEP_TEST</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A8," -u ",B8," -p ",C8)</f>
+        <v>mqsisetdbparms brk0002t -n STEP -u STEP -p h53ks!f</v>
+      </c>
+      <c r="F8" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A8)</f>
+        <v>mqsicvp brk0002t -n STEP</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A9," -u ",B9," -p ",C9)</f>
-        <v>mqsisetdbparms brk0002t -n STEP -u STEP -p h53ks!f</v>
+        <v>mqsisetdbparms brk0002t -n STEP_SS -u step_usert -p Stepusert999</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A9)</f>
-        <v>mqsicvp brk0002t -n STEP</v>
+        <v>mqsicvp brk0002t -n STEP_SS</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A12," -u ",B12," -p ",C12)</f>
+        <v>mqsisetdbparms brk0002t -n STATSNX_TEST -u statsnx -p statsnx</v>
+      </c>
+      <c r="F12" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A12)</f>
+        <v>mqsicvp brk0002t -n STATSNX_TEST</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A13," -u ",B13," -p ",C13)</f>
+        <v>mqsisetdbparms brk0002t -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+      </c>
+      <c r="F13" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A13)</f>
+        <v>mqsicvp brk0002t -n STATSNX_LIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A15," -u ",B15," -p ",C15)</f>
+        <v>mqsisetdbparms brk0002t -n ICCS -u step_usert -p Stepusert999</v>
+      </c>
+      <c r="F15" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A15)</f>
+        <v>mqsicvp brk0002t -n ICCS</v>
       </c>
     </row>
   </sheetData>
@@ -1200,7 +1327,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,15 +2007,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="181.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="57.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1965,23 +2093,104 @@
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C6">
+        <v>500000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A6,ConfigData!$D$2,") MAXMSGL(",B6,") MAXDEPTH(",C6,") DESCR('",D6,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.INCIDENTS.SUB.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Incident details published from the mobilisation system.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="14"/>
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C7">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A7,ConfigData!$D$2,") MAXMSGL(",B7,") MAXDEPTH(",C7,") DESCR('",D7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.CRUD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for OnCall Payments') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="14"/>
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A8,ConfigData!$D$2,") MAXMSGL(",B8,") MAXDEPTH(",C8,") DESCR('",D8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.EXPORTPAYCLAIMS.TEST) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service to perform an export of pay claims') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A9,ConfigData!$D$2,") MAXMSGL(",B9,") MAXDEPTH(",C9,") DESCR('",D9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.ERRPAYCHECK.TEST) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service to check pay claims and hold those in error') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10">
+        <f>1*2^20</f>
+        <v>1048576</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A10,ConfigData!$D$2,") MAXMSGL(",B10,") MAXDEPTH(",C10,") DESCR('",D10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(OCP.SVC.PAYROLLCUTOFF.TEST) MAXMSGL(1048576) MAXDEPTH(10) DESCR('Service for Payroll to perform a cutoff of pending claims') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,43 +2309,50 @@
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="194.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="194.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" ht="74.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="74.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>59</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="9" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -2147,21 +2363,21 @@
         <f>CONCATENATE(A4,".",B4,".TEST")</f>
         <v>TRG.CRON.TEST</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4096</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C4,[1]ConfigData!$D$2,") MAXMSGL(",D4,") MAXDEPTH(",E4,") DESCR('",F4,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.CRON.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Initiator queue for scheduler, put from cron job') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C4,ConfigData!$D$2,") MAXMSGL(",E4,") MAXDEPTH(",F4,") DESCR('",G4,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.CRON.TEST.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Initiator queue for scheduler, put from cron job') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2172,26 +2388,26 @@
         <f>CONCATENATE(A5,".",B5,".TEST")</f>
         <v>TRG.CRONHIST.TEST</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>4096</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C5,[1]ConfigData!$D$2,") MAXMSGL(",D5,") MAXDEPTH(",E5,") DESCR('",F5,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.CRONHIST.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Standard queue for triming cron history.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C5,ConfigData!$D$2,") MAXMSGL(",E5,") MAXDEPTH(",F5,") DESCR('",G5,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.CRONHIST.TEST.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Standard queue for triming cron history.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -2199,24 +2415,24 @@
         <v>62</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>CONCATENATE(A7,".",B7,".TEST")</f>
-        <v>TRG.EA938F900E757A39E040007F01001B22.TEST</v>
-      </c>
-      <c r="D7">
+        <f t="shared" ref="C7:C11" si="0">CONCATENATE(A7,".",B7)</f>
+        <v>TRG.EA938F900E757A39E040007F01001B22</v>
+      </c>
+      <c r="E7">
         <v>4096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C7,[1]ConfigData!$D$2,") MAXMSGL(",D7,") MAXDEPTH(",E7,") DESCR('",F7,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2224,24 +2440,24 @@
         <v>64</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>CONCATENATE(A8,".",B8,".TEST")</f>
-        <v>TRG.EC185528119388BCE040007F01004D73.TEST</v>
-      </c>
-      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>TRG.EC185528119388BCE040007F01004D73</v>
+      </c>
+      <c r="E8">
         <v>4096</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C8,[1]ConfigData!$D$2,") MAXMSGL(",D8,") MAXDEPTH(",E8,") DESCR('",F8,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -2249,24 +2465,24 @@
         <v>66</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>CONCATENATE(A9,".",B9,".TEST")</f>
-        <v>TRG.EDCF96F73298DCD6E040007F01002A78.TEST</v>
-      </c>
-      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>TRG.EDCF96F73298DCD6E040007F01002A78</v>
+      </c>
+      <c r="E9">
         <v>4096</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C9,[1]ConfigData!$D$2,") MAXMSGL(",D9,") MAXDEPTH(",E9,") DESCR('",F9,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2274,24 +2490,24 @@
         <v>71</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f>CONCATENATE(A10,".",B10,".TEST")</f>
-        <v>TRG.F3B0761D73C7BE83E040007F01006A57.TEST</v>
-      </c>
-      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>TRG.F3B0761D73C7BE83E040007F01006A57</v>
+      </c>
+      <c r="E10">
         <v>4096</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C10,[1]ConfigData!$D$2,") MAXMSGL(",D10,") MAXDEPTH(",E10,") DESCR('",F10,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2299,21 +2515,141 @@
         <v>79</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>CONCATENATE(A11,".",B11,".TEST")</f>
-        <v>TRG.F3D9AACA7497D170E040007F0100653C.TEST</v>
-      </c>
-      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>TRG.F3D9AACA7497D170E040007F0100653C</v>
+      </c>
+      <c r="E11">
         <v>4096</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C11,[1]ConfigData!$D$2,") MAXMSGL(",D11,") MAXDEPTH(",E11,") DESCR('",F11,"') BOQNAME(",[1]ConfigData!$H$3,") BOTHRESH(",[1]ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002d.BORQQ) BOTHRESH(3) REPLACE</v>
+      <c r="H11" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" ref="C13:C14" si="1">CONCATENATE(A13,".",B13)</f>
+        <v>TRG.008121A9CA484115E050007F010005BF</v>
+      </c>
+      <c r="D13" s="5">
+        <f>LEN(C13)</f>
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="2">4*2^10</f>
+        <v>4096</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>TRG.01233579C0FA0EF3E050007F01002A55</v>
+      </c>
+      <c r="D14" s="5">
+        <f>LEN(C14)</f>
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f>CONCATENATE(A15,".",SUBSTITUTE(UPPER(B15),"-",""))</f>
+        <v>TRG.BED586A02D1811E480EC0A5223B90000</v>
+      </c>
+      <c r="D15" s="5">
+        <f>LEN(C15)</f>
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f>CONCATENATE(A16,".",SUBSTITUTE(UPPER(B16),"-",""))</f>
+        <v>TRG.33FF6C2239A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D16" s="5">
+        <f>LEN(C16)</f>
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>
@@ -2376,4 +2712,71 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A3,"') TOPICSTR('",UPPER(B3),"') DEST('",C3,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Non-Emergency Incident Reporting') TOPICSTR('/FGC/MOBILISING/TABLE/STS_INCIDENTS') DEST('FGC.INCIDENTREP.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A5,"') TOPICSTR('",UPPER(B5),"') DEST('",C5,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('On-Call Incident Payments ') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('OCP.INCIDENTS.SUB.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
   <si>
     <t>Queue Name</t>
   </si>
@@ -448,6 +448,18 @@
   </si>
   <si>
     <t>ICCS</t>
+  </si>
+  <si>
+    <t>XLSTOXML.IN</t>
+  </si>
+  <si>
+    <t>Request queue to transform an Excel (XLS) to an XML document</t>
+  </si>
+  <si>
+    <t>XLSTOXML.OUT</t>
+  </si>
+  <si>
+    <t>Response queue to transform an Excel (XLS) to an XML document</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2007,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,11 +2214,43 @@
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A13,ConfigData!$D$2,") MAXMSGL(",B13,") MAXDEPTH(",C13,") DESCR('",D13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(XLSTOXML.IN.TEST) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Request queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A14,ConfigData!$D$2,") MAXMSGL(",B14,") MAXDEPTH(",C14,") DESCR('",D14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(XLSTOXML.OUT.TEST) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Response queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
   <si>
     <t>Queue Name</t>
   </si>
@@ -460,6 +460,27 @@
   </si>
   <si>
     <t>Response queue to transform an Excel (XLS) to an XML document</t>
+  </si>
+  <si>
+    <t>33ff6dc6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to validate meter readings.</t>
+  </si>
+  <si>
+    <t>Meter Readings/Carbon Footprint</t>
+  </si>
+  <si>
+    <t>On Call Payments</t>
+  </si>
+  <si>
+    <t>METERREADINGS.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for Meter Readings/Carbon Footprint</t>
+  </si>
+  <si>
+    <t>METER_READINGS</t>
   </si>
 </sst>
 </file>
@@ -706,7 +727,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
@@ -733,6 +754,7 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="9" quotePrefix="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="5" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -1114,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,6 +1347,26 @@
       <c r="F15" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A15)</f>
         <v>mqsicvp brk0002t -n ICCS</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A17," -u ",B17," -p ",C17)</f>
+        <v>mqsisetdbparms brk0002t -n METER_READINGS -u step_usert -p Stepusert999</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A17)</f>
+        <v>mqsicvp brk0002t -n METER_READINGS</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2258,7 +2300,23 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C16">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A16,ConfigData!$D$2,") MAXMSGL(",B16,") MAXDEPTH(",C16,") DESCR('",D16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(METERREADINGS.SVC.CRUD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Meter Readings/Carbon Footprint') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
@@ -2342,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2576,6 +2634,14 @@
         <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
@@ -2592,7 +2658,7 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E16" si="2">4*2^10</f>
+        <f t="shared" ref="E13:E18" si="2">4*2^10</f>
         <v>4096</v>
       </c>
       <c r="F13">
@@ -2694,6 +2760,44 @@
       <c r="H16" s="5" t="str">
         <f>CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>CONCATENATE(A18,".",SUBSTITUTE(UPPER(B18),"-",""))</f>
+        <v>TRG.33FF6DC639A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D18" s="5">
+        <f>LEN(C18)</f>
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14520" windowHeight="14640" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
   <si>
     <t>Queue Name</t>
   </si>
@@ -481,6 +481,21 @@
   </si>
   <si>
     <t>METER_READINGS</t>
+  </si>
+  <si>
+    <t>STATSNX.SUB</t>
+  </si>
+  <si>
+    <t>STATSNX Subscriber</t>
+  </si>
+  <si>
+    <t>The following subscriber feeds the queue that in turn will generate UKFF_INCIDENT requests.</t>
+  </si>
+  <si>
+    <t>UKFF.SVC.INCIDENT</t>
+  </si>
+  <si>
+    <t>Incident Service</t>
   </si>
 </sst>
 </file>
@@ -714,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -726,8 +741,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
@@ -755,8 +771,9 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
     <cellStyle name="Bad" xfId="10" builtinId="27"/>
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -764,6 +781,7 @@
     <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 3" xfId="5" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19"/>
     <cellStyle name="Input" xfId="9" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="6" builtinId="10"/>
@@ -1710,13 +1728,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,18 +2069,42 @@
         <v>DELETE QLOCAL(MESSAGE_STORE.TEST) PURGE</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="1">4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",A19,ConfigData!$D$2,") MAXMSGL(",B19,") MAXDEPTH(",C19,") DESCR('",D19,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(UKFF.SVC.INCIDENT.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Incident Service') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F19" s="5" t="str">
+        <f>CONCATENATE("DELETE QLOCAL(",A19,ConfigData!$D$2,") PURGE")</f>
+        <v>DELETE QLOCAL(UKFF.SVC.INCIDENT.TEST) PURGE</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2252,32 +2294,35 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12">
         <f>100*2^20</f>
         <v>104857600</v>
       </c>
-      <c r="C13">
-        <v>5000</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="16" t="str">
-        <f>CONCATENATE("DEFINE QL(",A13,ConfigData!$D$2,") MAXMSGL(",B13,") MAXDEPTH(",C13,") DESCR('",D13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(XLSTOXML.IN.TEST) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Request queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
+      <c r="C12">
+        <v>500000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A12,ConfigData!$D$2,") MAXMSGL(",B12,") MAXDEPTH(",C12,") DESCR('",D12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(STATSNX.SUB.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('STATSNX Subscriber') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f t="shared" ref="F12" si="0">CONCATENATE("DELETE QLOCAL(",A12,") PURGE")</f>
+        <v>DELETE QLOCAL(STATSNX.SUB) PURGE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <f>100*2^20</f>
@@ -2287,54 +2332,70 @@
         <v>5000</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>CONCATENATE("DEFINE QL(",A14,ConfigData!$D$2,") MAXMSGL(",B14,") MAXDEPTH(",C14,") DESCR('",D14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(XLSTOXML.IN.TEST) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Request queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C15">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A15,ConfigData!$D$2,") MAXMSGL(",B15,") MAXDEPTH(",C15,") DESCR('",D15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(XLSTOXML.OUT.TEST) MAXMSGL(104857600) MAXDEPTH(5000) DESCR('Response queue to transform an Excel (XLS) to an XML document') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f>4*2^20</f>
         <v>4194304</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>5000</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="16" t="str">
-        <f>CONCATENATE("DEFINE QL(",A16,ConfigData!$D$2,") MAXMSGL(",B16,") MAXDEPTH(",C16,") DESCR('",D16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+      <c r="E17" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A17,ConfigData!$D$2,") MAXMSGL(",B17,") MAXDEPTH(",C17,") DESCR('",D17,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(METERREADINGS.SVC.CRUD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Meter Readings/Carbon Footprint') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+    <row r="18" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
@@ -2363,6 +2424,10 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2864,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2943,7 @@
     <col min="4" max="4" width="130" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>109</v>
       </c>
@@ -2892,8 +2957,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -2908,7 +2973,7 @@
         <v>DEFINE SUB('Non-Emergency Incident Reporting') TOPICSTR('/FGC/MOBILISING/TABLE/STS_INCIDENTS') DEST('FGC.INCIDENTREP.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2922,6 +2987,29 @@
         <f>CONCATENATE("DEFINE SUB('",A5,"') TOPICSTR('",UPPER(B5),"') DEST('",C5,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
         <v>DEFINE SUB('On-Call Incident Payments ') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('OCP.INCIDENTS.SUB.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
       </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A7,"') TOPICSTR('",UPPER(B7),"') DEST('",C7,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('STATSNX Subscriber') TOPICSTR('/FGC/MOBILISING/TABLE/#') DEST('STATSNX.SUB.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
   <si>
     <t>Queue Name</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Incident Service</t>
+  </si>
+  <si>
+    <t>GartanRDS</t>
   </si>
 </sst>
 </file>
@@ -1154,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1370,7 @@
         <v>mqsicvp brk0002t -n ICCS</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>152</v>
       </c>
@@ -1385,6 +1388,28 @@
       <c r="F17" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A17)</f>
         <v>mqsicvp brk0002t -n METER_READINGS</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A19," -u ",B19," -p ",C19)</f>
+        <v>mqsisetdbparms brk0002t -n GartanRDS -u step_usert -p Stepusert999</v>
+      </c>
+      <c r="F19" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A19)</f>
+        <v>mqsicvp brk0002t -n GartanRDS</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="MQ Triggers" sheetId="7" r:id="rId7"/>
     <sheet name="ManagedFileTransfer" sheetId="8" r:id="rId8"/>
     <sheet name="Subscribers" sheetId="9" r:id="rId9"/>
+    <sheet name="Command Line" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
   <si>
     <t>Queue Name</t>
   </si>
@@ -499,6 +500,81 @@
   </si>
   <si>
     <t>GartanRDS</t>
+  </si>
+  <si>
+    <t>Execution Groups</t>
+  </si>
+  <si>
+    <t>Event Monitoring On</t>
+  </si>
+  <si>
+    <t>Event Monitoring Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jvmDebugPort </t>
+  </si>
+  <si>
+    <t>backgroundservices</t>
+  </si>
+  <si>
+    <t>bpm4</t>
+  </si>
+  <si>
+    <t>fgc</t>
+  </si>
+  <si>
+    <t>meterreadings</t>
+  </si>
+  <si>
+    <t>oncallpayments</t>
+  </si>
+  <si>
+    <t>remsdaq</t>
+  </si>
+  <si>
+    <t>ukffv1</t>
+  </si>
+  <si>
+    <t>ukffv4</t>
+  </si>
+  <si>
+    <t>ukffwsg</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes</t>
+  </si>
+  <si>
+    <t>33ff6e3e-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to perform sync operation between HR system and UKFF</t>
+  </si>
+  <si>
+    <t>33ff6eb6-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to perform publish operation from Active Directory.</t>
+  </si>
+  <si>
+    <t>33ff6f9c-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to poll ResourceLink for staff changes.</t>
+  </si>
+  <si>
+    <t>AUDITLOG</t>
+  </si>
+  <si>
+    <t>Audit Logging Queue</t>
+  </si>
+  <si>
+    <t>EVENTMONITORING</t>
+  </si>
+  <si>
+    <t>Event Monitoring Queue</t>
   </si>
 </sst>
 </file>
@@ -1155,6 +1231,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A2," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e backgroundservices -j -c active</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A2," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e backgroundservices -j -c inactive</v>
+      </c>
+      <c r="D2">
+        <v>62000</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A2," -o ComIbmJVMManager -n jvmDebugPort -v ",D2)</f>
+        <v>mqsichangeproperties brk0002t -e backgroundservices -o ComIbmJVMManager -n jvmDebugPort -v 62000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A3," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e bpm4 -j -c active</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A3," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e bpm4 -j -c inactive</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">D2+1</f>
+        <v>62001</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A3," -o ComIbmJVMManager -n jvmDebugPort -v ",D3)</f>
+        <v>mqsichangeproperties brk0002t -e bpm4 -o ComIbmJVMManager -n jvmDebugPort -v 62001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A4," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e fgc -j -c active</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A4," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e fgc -j -c inactive</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>62002</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A4," -o ComIbmJVMManager -n jvmDebugPort -v ",D4)</f>
+        <v>mqsichangeproperties brk0002t -e fgc -o ComIbmJVMManager -n jvmDebugPort -v 62002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A5," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e meterreadings -j -c active</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A5," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e meterreadings -j -c inactive</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>62003</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A5," -o ComIbmJVMManager -n jvmDebugPort -v ",D5)</f>
+        <v>mqsichangeproperties brk0002t -e meterreadings -o ComIbmJVMManager -n jvmDebugPort -v 62003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A6," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e oncallpayments -j -c active</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A6," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e oncallpayments -j -c inactive</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>62004</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A6," -o ComIbmJVMManager -n jvmDebugPort -v ",D6)</f>
+        <v>mqsichangeproperties brk0002t -e oncallpayments -o ComIbmJVMManager -n jvmDebugPort -v 62004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A7," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e remsdaq -j -c active</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A7," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e remsdaq -j -c inactive</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>62005</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A7," -o ComIbmJVMManager -n jvmDebugPort -v ",D7)</f>
+        <v>mqsichangeproperties brk0002t -e remsdaq -o ComIbmJVMManager -n jvmDebugPort -v 62005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A8," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffv1 -j -c active</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A8," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffv1 -j -c inactive</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>62006</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A8," -o ComIbmJVMManager -n jvmDebugPort -v ",D8)</f>
+        <v>mqsichangeproperties brk0002t -e ukffv1 -o ComIbmJVMManager -n jvmDebugPort -v 62006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A9," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffv4 -j -c active</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A9," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffv4 -j -c inactive</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>62007</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A9," -o ComIbmJVMManager -n jvmDebugPort -v ",D9)</f>
+        <v>mqsichangeproperties brk0002t -e ukffv4 -o ComIbmJVMManager -n jvmDebugPort -v 62007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A10," -j -c active")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffwsg -j -c active</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("mqsichangeflowmonitoring"," ",ConfigData!$D$4," -e ",A10," -j -c inactive")</f>
+        <v>mqsichangeflowmonitoring brk0002t -e ukffwsg -j -c inactive</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>62008</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE("mqsichangeproperties"," ",ConfigData!$D$4," -e ",A10," -o ComIbmJVMManager -n jvmDebugPort -v ",D10)</f>
+        <v>mqsichangeproperties brk0002t -e ukffwsg -o ComIbmJVMManager -n jvmDebugPort -v 62008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
@@ -1755,11 +2054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,14 +2305,14 @@
         <v>4194304</v>
       </c>
       <c r="C12">
-        <v>5000</v>
+        <v>100000</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="5" t="str">
         <f>CONCATENATE("DEFINE QL(",A12,ConfigData!$D$2,") MAXMSGL(",B12,") MAXDEPTH(",C12,") DESCR('",D12,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(UKFF.BPM.SERVICE.RESPONSE.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Response Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(UKFF.BPM.SERVICE.RESPONSE.TEST) MAXMSGL(4194304) MAXDEPTH(100000) DESCR('Response Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>CONCATENATE("DELETE QLOCAL(",A12,ConfigData!$D$2,") PURGE")</f>
@@ -2128,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,20 +2713,67 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19">
+        <v>4096</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A19,ConfigData!$D$2,") MAXMSGL(",B19,") MAXDEPTH(",C19,") DESCR('",D19,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES.TEST) MAXMSGL(4096) MAXDEPTH(5000) DESCR('ResourceLink Changes') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C21">
+        <v>500000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A21,ConfigData!$D$2,") MAXMSGL(",B21,") MAXDEPTH(",C21,") DESCR('",D21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AUDITLOG.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Audit Logging Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22">
+        <f>100*2^20</f>
+        <v>104857600</v>
+      </c>
+      <c r="C22">
+        <v>500000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A22,ConfigData!$D$2,") MAXMSGL(",B22,") MAXDEPTH(",C22,") DESCR('",D22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(EVENTMONITORING.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2888,6 +3234,99 @@
       <c r="H18" s="5" t="str">
         <f>CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" ref="C20:C22" si="3">IF(NOT(ISBLANK(B20)),CONCATENATE(A20,".",SUBSTITUTE(UPPER(B20),"-","")),"")</f>
+        <v>TRG.33FF6E3E39A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D22" si="4">IF(NOT(ISBLANK(C20)),LEN(C20),"")</f>
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F20">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>TRG.33FF6EB639A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F21">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C21,ConfigData!$D$2,") MAXMSGL(",E21,") MAXDEPTH(",F21,") DESCR('",G21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform publish operation from Active Directory.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>TRG.33FF6F9C39A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F22">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
   <si>
     <t>Queue Name</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>Event Monitoring Queue</t>
+  </si>
+  <si>
+    <t>33ff7014-39a6-11e4-baca-0a5223b90000</t>
+  </si>
+  <si>
+    <t>Trigger to import employee skills from Gartan/ERAS.</t>
   </si>
 </sst>
 </file>
@@ -1235,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -2836,10 +2842,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:H22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3327,6 +3333,37 @@
       <c r="H22" s="5" t="str">
         <f>CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="5" t="str">
+        <f t="shared" ref="C24" si="5">IF(NOT(ISBLANK(B24)),CONCATENATE(A24,".",SUBSTITUTE(UPPER(B24),"-","")),"")</f>
+        <v>TRG.33FF701439A611E4BACA0A5223B90000</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" ref="D24" si="6">IF(NOT(ISBLANK(C24)),LEN(C24),"")</f>
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <f>IF(NOT(ISBLANK(#REF!)),4*2^10,"")</f>
+        <v>4096</v>
+      </c>
+      <c r="F24">
+        <f>IF(NOT(ISBLANK(#REF!)),1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7305" activeTab="6"/>
+    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="12795" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="191">
   <si>
     <t>Queue Name</t>
   </si>
@@ -556,9 +556,6 @@
     <t>33ff6eb6-39a6-11e4-baca-0a5223b90000</t>
   </si>
   <si>
-    <t>Trigger to perform publish operation from Active Directory.</t>
-  </si>
-  <si>
     <t>33ff6f9c-39a6-11e4-baca-0a5223b90000</t>
   </si>
   <si>
@@ -581,6 +578,24 @@
   </si>
   <si>
     <t>Trigger to import employee skills from Gartan/ERAS.</t>
+  </si>
+  <si>
+    <t>Trigger to poll Active Directory for changes.</t>
+  </si>
+  <si>
+    <t>AD.CHANGES</t>
+  </si>
+  <si>
+    <t>Active Directory Changes</t>
+  </si>
+  <si>
+    <t>ATP.SVC.CRUD</t>
+  </si>
+  <si>
+    <t>CRUD Service for Movers and Transfers</t>
+  </si>
+  <si>
+    <t>TRANSFERS</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,6 +1729,28 @@
         <v>mqsicvp brk0002t -n GartanRDS</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A21," -u ",B21," -p ",C21)</f>
+        <v>mqsisetdbparms brk0002t -n TRANSFERS -u step_usert -p Stepusert999</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A21)</f>
+        <v>mqsicvp brk0002t -n TRANSFERS</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2434,7 +2471,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2744,7 +2781,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21">
         <f>100*2^20</f>
@@ -2754,7 +2791,7 @@
         <v>500000</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="16" t="str">
         <f>CONCATENATE("DEFINE QL(",A21,ConfigData!$D$2,") MAXMSGL(",B21,") MAXDEPTH(",C21,") DESCR('",D21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2764,7 +2801,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22">
         <f>100*2^20</f>
@@ -2774,7 +2811,7 @@
         <v>500000</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="16" t="str">
         <f>CONCATENATE("DEFINE QL(",A22,ConfigData!$D$2,") MAXMSGL(",B22,") MAXDEPTH(",C22,") DESCR('",D22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
@@ -2787,7 +2824,22 @@
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="5"/>
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24">
+        <v>4096</v>
+      </c>
+      <c r="C24">
+        <v>5000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A24,ConfigData!$D$2,") MAXMSGL(",B24,") MAXDEPTH(",C24,") DESCR('",D24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.TEST) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Active Directory Changes') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,7 +2847,22 @@
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="5"/>
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26">
+        <v>4194304</v>
+      </c>
+      <c r="C26">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A26,ConfigData!$D$2,") MAXMSGL(",B26,") MAXDEPTH(",C26,") DESCR('",D26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(ATP.SVC.CRUD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Movers and Transfers') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="H24" sqref="H7:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,8 +3039,8 @@
         <v>63</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C7,ConfigData!$D$2,") MAXMSGL(",E7,") MAXDEPTH(",F7,") DESCR('",G7,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.EA938F900E757A39E040007F01001B22.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Invalid Transaction Report for Government Procurement Cards') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,8 +3064,8 @@
         <v>65</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C8,ConfigData!$D$2,") MAXMSGL(",E8,") MAXDEPTH(",F8,") DESCR('",G8,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.EC185528119388BCE040007F01004D73.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to instruct WMB to generate a number of UUIDs') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,8 +3089,8 @@
         <v>67</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C9,ConfigData!$D$2,") MAXMSGL(",E9,") MAXDEPTH(",F9,") DESCR('",G9,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.EDCF96F73298DCD6E040007F01002A78.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Used to trigger the export of data to a Dream CSV import file') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,8 +3114,8 @@
         <v>72</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C10,ConfigData!$D$2,") MAXMSGL(",E10,") MAXDEPTH(",F10,") DESCR('",G10,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.F3B0761D73C7BE83E040007F01006A57.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Gets and reports on BPM instances in an error state.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,8 +3139,8 @@
         <v>80</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C11,ConfigData!$D$2,") MAXMSGL(",E11,") MAXDEPTH(",F11,") DESCR('",G11,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.F3D9AACA7497D170E040007F0100653C.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Received task notification email.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3110,8 +3177,8 @@
         <v>124</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C13,ConfigData!$D$2,") MAXMSGL(",E13,") MAXDEPTH(",F13,") DESCR('",G13,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.008121A9CA484115E050007F010005BF.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create On-Call Payments at Training Centre (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3140,8 +3207,8 @@
         <v>126</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C14,ConfigData!$D$2,") MAXMSGL(",E14,") MAXDEPTH(",F14,") DESCR('",G14,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.01233579C0FA0EF3E050007F01002A55.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform an erroneous payments check. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -3170,8 +3237,8 @@
         <v>128</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C15,ConfigData!$D$2,") MAXMSGL(",E15,") MAXDEPTH(",F15,") DESCR('",G15,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.BED586A02D1811E480EC0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create the payments export file. (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -3200,8 +3267,8 @@
         <v>133</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C16,ConfigData!$D$2,") MAXMSGL(",E16,") MAXDEPTH(",F16,") DESCR('",G16,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6C2239A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to create Drill Night Payments (OCP)') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3238,8 +3305,8 @@
         <v>147</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C18,ConfigData!$D$2,") MAXMSGL(",E18,") MAXDEPTH(",F18,") DESCR('",G18,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6DC639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to validate meter readings.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -3269,8 +3336,8 @@
         <v>175</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C20,ConfigData!$D$2,") MAXMSGL(",E20,") MAXDEPTH(",F20,") DESCR('",G20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6E3E39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform sync operation between HR system and UKFF') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,11 +3364,11 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C21,ConfigData!$D$2,") MAXMSGL(",E21,") MAXDEPTH(",F21,") DESCR('",G21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to perform publish operation from Active Directory.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C21,ConfigData!$D$2,") MAXMSGL(",E21,") MAXDEPTH(",F21,") DESCR('",G21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6EB639A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll Active Directory for changes.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3309,7 +3376,7 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3328,11 +3395,11 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C22,ConfigData!$D$2,") MAXMSGL(",E22,") MAXDEPTH(",F22,") DESCR('",G22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF6F9C39A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to poll ResourceLink for staff changes.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3340,7 +3407,7 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ref="C24" si="5">IF(NOT(ISBLANK(B24)),CONCATENATE(A24,".",SUBSTITUTE(UPPER(B24),"-","")),"")</f>
@@ -3359,11 +3426,11 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <f>CONCATENATE("DEFINE QL(",C24,ConfigData!$D$2,") MAXMSGL(",E24,") MAXDEPTH(",F24,") DESCR('",G24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(1) REPLACE")</f>
+        <v>DEFINE QL(TRG.33FF701439A611E4BACA0A5223B90000.TEST) MAXMSGL(4096) MAXDEPTH(1) DESCR('Trigger to import employee skills from Gartan/ERAS.') BOQNAME(fgc0002t.BORQQ) BOTHRESH(1) REPLACE</v>
       </c>
     </row>
   </sheetData>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
   <si>
     <t>Queue Name</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>TRANSFERS</t>
+  </si>
+  <si>
+    <t>Attempt to standardise the DSN across environments.</t>
+  </si>
+  <si>
+    <t>RESOURCELINK</t>
   </si>
 </sst>
 </file>
@@ -1477,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,230 +1533,252 @@
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D3" s="12" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A3," -u ",B3," -p ",C3)</f>
-        <v>mqsisetdbparms brk0002t -n ESBCONF -u wmbadmin -p QhQ9vMufAoSXNOcQ1lsW</v>
+        <v>mqsisetdbparms brk0002t -n RESOURCELINK -u CMTEST -p jm08_cmt</v>
       </c>
       <c r="F3" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A3)</f>
-        <v>mqsicvp brk0002t -n ESBCONF</v>
+        <v>mqsicvp brk0002t -n RESOURCELINK</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="D4" s="12" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A4," -u ",B4," -p ",C4)</f>
-        <v>mqsisetdbparms brk0002t -n BPMDBT01 -u bpmdbusr -p b0z2kh95</v>
+        <v>mqsisetdbparms brk0002t -n ESBCONF -u wmbadmin -p QhQ9vMufAoSXNOcQ1lsW</v>
       </c>
       <c r="F4" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A4)</f>
+        <v>mqsicvp brk0002t -n ESBCONF</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A5," -u ",B5," -p ",C5)</f>
+        <v>mqsisetdbparms brk0002t -n BPMDBT01 -u bpmdbusr -p b0z2kh95</v>
+      </c>
+      <c r="F5" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A5)</f>
         <v>mqsicvp brk0002t -n BPMDBT01</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="6" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="7" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="19" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A6," -u ",B6," -p ",C6)</f>
+      <c r="D7" s="19" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A7," -u ",B7," -p ",C7)</f>
         <v>mqsisetdbparms brk0002t -n STEP_TEST -u STEP -p h53ks!f</v>
       </c>
-      <c r="F6" s="19" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A6)</f>
+      <c r="F7" s="19" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A7)</f>
         <v>mqsicvp brk0002t -n STEP_TEST</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A8," -u ",B8," -p ",C8)</f>
-        <v>mqsisetdbparms brk0002t -n STEP -u STEP -p h53ks!f</v>
-      </c>
-      <c r="F8" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A8)</f>
-        <v>mqsicvp brk0002t -n STEP</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D9" s="12" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A9," -u ",B9," -p ",C9)</f>
-        <v>mqsisetdbparms brk0002t -n STEP_SS -u step_usert -p Stepusert999</v>
+        <v>mqsisetdbparms brk0002t -n STEP -u STEP -p h53ks!f</v>
       </c>
       <c r="F9" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A9)</f>
+        <v>mqsicvp brk0002t -n STEP</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A10," -u ",B10," -p ",C10)</f>
+        <v>mqsisetdbparms brk0002t -n STEP_SS -u step_usert -p Stepusert999</v>
+      </c>
+      <c r="F10" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A10)</f>
         <v>mqsicvp brk0002t -n STEP_SS</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A12," -u ",B12," -p ",C12)</f>
-        <v>mqsisetdbparms brk0002t -n STATSNX_TEST -u statsnx -p statsnx</v>
-      </c>
-      <c r="F12" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A12)</f>
-        <v>mqsicvp brk0002t -n STATSNX_TEST</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="D13" s="12" t="str">
         <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A13," -u ",B13," -p ",C13)</f>
-        <v>mqsisetdbparms brk0002t -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+        <v>mqsisetdbparms brk0002t -n STATSNX_TEST -u statsnx -p statsnx</v>
       </c>
       <c r="F13" s="12" t="str">
         <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A13)</f>
+        <v>mqsicvp brk0002t -n STATSNX_TEST</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A14," -u ",B14," -p ",C14)</f>
+        <v>mqsisetdbparms brk0002t -n STATSNX_LIVE -u statsnx -p R3ms09_1</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A14)</f>
         <v>mqsicvp brk0002t -n STATSNX_LIVE</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A15," -u ",B15," -p ",C15)</f>
+      <c r="D16" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A16," -u ",B16," -p ",C16)</f>
         <v>mqsisetdbparms brk0002t -n ICCS -u step_usert -p Stepusert999</v>
       </c>
-      <c r="F15" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A15)</f>
+      <c r="F16" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A16)</f>
         <v>mqsicvp brk0002t -n ICCS</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B18" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A17," -u ",B17," -p ",C17)</f>
+      <c r="D18" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A18," -u ",B18," -p ",C18)</f>
         <v>mqsisetdbparms brk0002t -n METER_READINGS -u step_usert -p Stepusert999</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A17)</f>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A18)</f>
         <v>mqsicvp brk0002t -n METER_READINGS</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="20" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A19," -u ",B19," -p ",C19)</f>
+      <c r="D20" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A20," -u ",B20," -p ",C20)</f>
         <v>mqsisetdbparms brk0002t -n GartanRDS -u step_usert -p Stepusert999</v>
       </c>
-      <c r="F19" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A19)</f>
+      <c r="F20" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A20)</f>
         <v>mqsicvp brk0002t -n GartanRDS</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H20" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A21," -u ",B21," -p ",C21)</f>
+      <c r="D22" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A22," -u ",B22," -p ",C22)</f>
         <v>mqsisetdbparms brk0002t -n TRANSFERS -u step_usert -p Stepusert999</v>
       </c>
-      <c r="F21" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A21)</f>
+      <c r="F22" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A22)</f>
         <v>mqsicvp brk0002t -n TRANSFERS</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>106</v>
       </c>
     </row>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="45" windowWidth="14310" windowHeight="12795" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="12735" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
   <si>
     <t>Queue Name</t>
   </si>
@@ -602,6 +602,48 @@
   </si>
   <si>
     <t>RESOURCELINK</t>
+  </si>
+  <si>
+    <t>Active Directory Changes Subscriber for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>/FGC/ACTIVEDIRECTORY/CHANGES</t>
+  </si>
+  <si>
+    <t>AD.CHANGES.UKFF_STAFF</t>
+  </si>
+  <si>
+    <t>Active Directory Changes Subscriber for ResourceLink</t>
+  </si>
+  <si>
+    <t>AD.CHANGES.RESOURCELINK</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes Subscriber for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>/FGC/RESOURCELINK/CHANGES</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES.UKFF_STAFF</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes Subscriber for Active Directory</t>
+  </si>
+  <si>
+    <t>RESOURCELINK.CHANGES.AD</t>
+  </si>
+  <si>
+    <t>Active Directory Changes for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>Active Directory Changes for ResourceLink</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes for UKFF_Staff</t>
+  </si>
+  <si>
+    <t>ResourceLink Changes for Active Directory</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2496,10 +2538,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2803,70 +2845,87 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A20,ConfigData!$D$2,") MAXMSGL(",B20,") MAXDEPTH(",C20,") DESCR('",D20,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES.UKFF_STAFF.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('ResourceLink Changes for UKFF_Staff') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C21">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A21,ConfigData!$D$2,") MAXMSGL(",B21,") MAXDEPTH(",C21,") DESCR('",D21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(RESOURCELINK.CHANGES.AD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('ResourceLink Changes for Active Directory') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>179</v>
       </c>
-      <c r="B21">
+      <c r="B23">
         <f>100*2^20</f>
         <v>104857600</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>500000</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>180</v>
       </c>
-      <c r="E21" s="16" t="str">
-        <f>CONCATENATE("DEFINE QL(",A21,ConfigData!$D$2,") MAXMSGL(",B21,") MAXDEPTH(",C21,") DESCR('",D21,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+      <c r="E23" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A23,ConfigData!$D$2,") MAXMSGL(",B23,") MAXDEPTH(",C23,") DESCR('",D23,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(AUDITLOG.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Audit Logging Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>181</v>
       </c>
-      <c r="B22">
+      <c r="B24">
         <f>100*2^20</f>
         <v>104857600</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>500000</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>182</v>
-      </c>
-      <c r="E22" s="16" t="str">
-        <f>CONCATENATE("DEFINE QL(",A22,ConfigData!$D$2,") MAXMSGL(",B22,") MAXDEPTH(",C22,") DESCR('",D22,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(EVENTMONITORING.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
-      </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24">
-        <v>4096</v>
-      </c>
-      <c r="C24">
-        <v>5000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>187</v>
       </c>
       <c r="E24" s="16" t="str">
         <f>CONCATENATE("DEFINE QL(",A24,ConfigData!$D$2,") MAXMSGL(",B24,") MAXDEPTH(",C24,") DESCR('",D24,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
-        <v>DEFINE QL(AD.CHANGES.TEST) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Active Directory Changes') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+        <v>DEFINE QL(EVENTMONITORING.TEST) MAXMSGL(104857600) MAXDEPTH(500000) DESCR('Event Monitoring Queue') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
       <c r="F24" s="5"/>
     </row>
@@ -2876,30 +2935,89 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B26">
-        <v>4194304</v>
+        <v>4096</v>
       </c>
       <c r="C26">
         <v>5000</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26" s="16" t="str">
         <f>CONCATENATE("DEFINE QL(",A26,ConfigData!$D$2,") MAXMSGL(",B26,") MAXDEPTH(",C26,") DESCR('",D26,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.TEST) MAXMSGL(4096) MAXDEPTH(5000) DESCR('Active Directory Changes') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A27,ConfigData!$D$2,") MAXMSGL(",B27,") MAXDEPTH(",C27,") DESCR('",D27,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.UKFF_STAFF.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Active Directory Changes for UKFF_Staff') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28">
+        <f>4*2^20</f>
+        <v>4194304</v>
+      </c>
+      <c r="C28">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A28,ConfigData!$D$2,") MAXMSGL(",B28,") MAXDEPTH(",C28,") DESCR('",D28,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
+        <v>DEFINE QL(AD.CHANGES.RESOURCELINK.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('Active Directory Changes for ResourceLink') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30">
+        <v>4194304</v>
+      </c>
+      <c r="C30">
+        <v>5000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="16" t="str">
+        <f>CONCATENATE("DEFINE QL(",A30,ConfigData!$D$2,") MAXMSGL(",B30,") MAXDEPTH(",C30,") DESCR('",D30,"') BOQNAME(",ConfigData!$H$3,") BOTHRESH(",ConfigData!$F$3,") REPLACE")</f>
         <v>DEFINE QL(ATP.SVC.CRUD.TEST) MAXMSGL(4194304) MAXDEPTH(5000) DESCR('CRUD Service for Movers and Transfers') BOQNAME(fgc0002t.BORQQ) BOTHRESH(3) REPLACE</v>
       </c>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2939,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
       <selection activeCell="H24" sqref="H7:H24"/>
     </sheetView>
   </sheetViews>
@@ -3525,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,6 +3725,66 @@
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A10,"') TOPICSTR('",UPPER(B10),"') DEST('",C10,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Active Directory Changes Subscriber for UKFF_Staff') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.UKFF_STAFF.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A11,"') TOPICSTR('",UPPER(B11),"') DEST('",C11,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('Active Directory Changes Subscriber for ResourceLink') TOPICSTR('/FGC/ACTIVEDIRECTORY/CHANGES') DEST('AD.CHANGES.RESOURCELINK.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A13,"') TOPICSTR('",UPPER(B13),"') DEST('",C13,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('ResourceLink Changes Subscriber for UKFF_Staff') TOPICSTR('/FGC/RESOURCELINK/CHANGES') DEST('RESOURCELINK.CHANGES.UKFF_STAFF.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f>CONCATENATE("DEFINE SUB('",A14,"') TOPICSTR('",UPPER(B14),"') DEST('",C14,ConfigData!$D$2,"') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE")</f>
+        <v>DEFINE SUB('ResourceLink Changes Subscriber for Active Directory') TOPICSTR('/FGC/RESOURCELINK/CHANGES') DEST('RESOURCELINK.CHANGES.AD.TEST') TOPICOBJ(SYSTEM.BROKER.DEFAULT.SUBPOINT) REPLACE</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14505" yWindow="105" windowWidth="14310" windowHeight="12735" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="14505" yWindow="165" windowWidth="14310" windowHeight="12675" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConfigData" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="209">
   <si>
     <t>Queue Name</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>ResourceLink Changes for Active Directory</t>
+  </si>
+  <si>
+    <t>step_userl</t>
+  </si>
+  <si>
+    <t>Stepuserl999</t>
   </si>
 </sst>
 </file>
@@ -1525,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,25 +1808,47 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="21" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A21," -u ",B21," -p ",C21)</f>
+        <v>mqsisetdbparms brk0002t -n GartanRDS -u step_userl -p Stepuserl999</v>
+      </c>
+      <c r="F21" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A21)</f>
+        <v>mqsicvp brk0002t -n GartanRDS</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="12" t="str">
-        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A22," -u ",B22," -p ",C22)</f>
+      <c r="D23" s="12" t="str">
+        <f>CONCATENATE( "mqsisetdbparms ",ConfigData!$D$4," -n ",A23," -u ",B23," -p ",C23)</f>
         <v>mqsisetdbparms brk0002t -n TRANSFERS -u step_usert -p Stepusert999</v>
       </c>
-      <c r="F22" s="12" t="str">
-        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A22)</f>
+      <c r="F23" s="12" t="str">
+        <f>CONCATENATE( "mqsicvp ",ConfigData!$D$4," -n ",A23)</f>
         <v>mqsicvp brk0002t -n TRANSFERS</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3057,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="H24" sqref="H7:H24"/>
     </sheetView>
   </sheetViews>
